--- a/Results/Building_1_PV/New Microsoft Excel Worksheet.xlsx
+++ b/Results/Building_1_PV/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart\Downloads\CityLearn-EVModel-Parisa-develop-ev (2)\CityLearn-EVModel-Parisa-develop-ev\ev_test_data\Results\Building_1_PV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{416A2579-CB1D-459D-961A-305DE819B731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88032C78-298F-4DB8-9171-6D5F76F7DA95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3216" yWindow="1476" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="SAC" sheetId="1" r:id="rId1"/>
@@ -31,18 +31,6 @@
     <t>index,cost_function,value,name,level</t>
   </si>
   <si>
-    <t>0,annual_peak_average,1.1061796759355347,District,district</t>
-  </si>
-  <si>
-    <t>1,carbon_emissions_total,0.9975459453656246,District,district</t>
-  </si>
-  <si>
-    <t>2,cost_total,0.9952398026511629,District,district</t>
-  </si>
-  <si>
-    <t>3,daily_peak_average,0.9940174032902122,District,district</t>
-  </si>
-  <si>
     <t>4,discomfort_delta_average,0.0,District,district</t>
   </si>
   <si>
@@ -61,30 +49,6 @@
     <t>9,discomfort_too_hot_proportion,NaN,District,district</t>
   </si>
   <si>
-    <t>10,electricity_consumption_total,0.9956160373628936,District,district</t>
-  </si>
-  <si>
-    <t>11,one_minus_load_factor_average,1.022176141481911,District,district</t>
-  </si>
-  <si>
-    <t>12,ramping_average,1.0745303398742534,District,district</t>
-  </si>
-  <si>
-    <t>13,zero_net_energy,0.982918896775797,District,district</t>
-  </si>
-  <si>
-    <t>14,electricity_consumption_total,0.9771797588156602,Building_1,building</t>
-  </si>
-  <si>
-    <t>15,zero_net_energy,0.9771567773691598,Building_1,building</t>
-  </si>
-  <si>
-    <t>16,carbon_emissions_total,0.977585083436154,Building_1,building</t>
-  </si>
-  <si>
-    <t>17,cost_total,0.9634221452707067,Building_1,building</t>
-  </si>
-  <si>
     <t>18,discomfort_proportion,NaN,Building_1,building</t>
   </si>
   <si>
@@ -103,18 +67,6 @@
     <t>23,discomfort_delta_average,0.0,Building_1,building</t>
   </si>
   <si>
-    <t>24,electricity_consumption_total,1.0247709555160938,Building_2,building</t>
-  </si>
-  <si>
-    <t>25,zero_net_energy,0.9366603181802786,Building_2,building</t>
-  </si>
-  <si>
-    <t>26,carbon_emissions_total,1.036341119322081,Building_2,building</t>
-  </si>
-  <si>
-    <t>27,cost_total,1.0398235326840344,Building_2,building</t>
-  </si>
-  <si>
     <t>28,discomfort_proportion,NaN,Building_2,building</t>
   </si>
   <si>
@@ -133,18 +85,6 @@
     <t>33,discomfort_delta_average,0.0,Building_2,building</t>
   </si>
   <si>
-    <t>34,electricity_consumption_total,1.0,Building_3,building</t>
-  </si>
-  <si>
-    <t>35,zero_net_energy,1.0,Building_3,building</t>
-  </si>
-  <si>
-    <t>36,carbon_emissions_total,1.0,Building_3,building</t>
-  </si>
-  <si>
-    <t>37,cost_total,1.0,Building_3,building</t>
-  </si>
-  <si>
     <t>38,discomfort_proportion,NaN,Building_3,building</t>
   </si>
   <si>
@@ -163,18 +103,6 @@
     <t>43,discomfort_delta_average,0.0,Building_3,building</t>
   </si>
   <si>
-    <t>44,electricity_consumption_total,0.9606373867110077,Building_4,building</t>
-  </si>
-  <si>
-    <t>45,zero_net_energy,0.9598910213836467,Building_4,building</t>
-  </si>
-  <si>
-    <t>46,carbon_emissions_total,0.9619822305458035,Building_4,building</t>
-  </si>
-  <si>
-    <t>47,cost_total,0.9548052080831755,Building_4,building</t>
-  </si>
-  <si>
     <t>48,discomfort_proportion,NaN,Building_4,building</t>
   </si>
   <si>
@@ -193,18 +121,6 @@
     <t>53,discomfort_delta_average,0.0,Building_4,building</t>
   </si>
   <si>
-    <t>54,electricity_consumption_total,1.0000275105722627,Building_5,building</t>
-  </si>
-  <si>
-    <t>55,zero_net_energy,1.0000275105722627,Building_5,building</t>
-  </si>
-  <si>
-    <t>56,carbon_emissions_total,1.000039000889807,Building_5,building</t>
-  </si>
-  <si>
-    <t>57,cost_total,1.0000158464794222,Building_5,building</t>
-  </si>
-  <si>
     <t>58,discomfort_proportion,NaN,Building_5,building</t>
   </si>
   <si>
@@ -223,18 +139,6 @@
     <t>63,discomfort_delta_average,0.0,Building_5,building</t>
   </si>
   <si>
-    <t>64,electricity_consumption_total,1.0066952114867465,Building_6,building</t>
-  </si>
-  <si>
-    <t>65,zero_net_energy,1.0066952114867465,Building_6,building</t>
-  </si>
-  <si>
-    <t>66,carbon_emissions_total,1.006871567787403,Building_6,building</t>
-  </si>
-  <si>
-    <t>67,cost_total,1.0086019940674709,Building_6,building</t>
-  </si>
-  <si>
     <t>68,discomfort_proportion,NaN,Building_6,building</t>
   </si>
   <si>
@@ -253,18 +157,6 @@
     <t>73,discomfort_delta_average,0.0,Building_6,building</t>
   </si>
   <si>
-    <t>74,electricity_consumption_total,1.000001438438485,Building_7,building</t>
-  </si>
-  <si>
-    <t>75,zero_net_energy,1.000001438438485,Building_7,building</t>
-  </si>
-  <si>
-    <t>76,carbon_emissions_total,1.0000026155781236,Building_7,building</t>
-  </si>
-  <si>
-    <t>77,cost_total,1.00000989197333,Building_7,building</t>
-  </si>
-  <si>
     <t>78,discomfort_proportion,NaN,Building_7,building</t>
   </si>
   <si>
@@ -283,30 +175,6 @@
     <t>83,discomfort_delta_average,0.0,Building_7,building</t>
   </si>
   <si>
-    <t>0,annual_peak_average,0.9890052446253846,District,district</t>
-  </si>
-  <si>
-    <t>1,carbon_emissions_total,1.0085041124777627,District,district</t>
-  </si>
-  <si>
-    <t>2,cost_total,1.0195780363082148,District,district</t>
-  </si>
-  <si>
-    <t>3,daily_peak_average,1.1712518831312293,District,district</t>
-  </si>
-  <si>
-    <t>10,electricity_consumption_total,1.0211401055303135,District,district</t>
-  </si>
-  <si>
-    <t>11,one_minus_load_factor_average,1.0901192327178186,District,district</t>
-  </si>
-  <si>
-    <t>12,ramping_average,1.4204763919063272,District,district</t>
-  </si>
-  <si>
-    <t>13,zero_net_energy,1.013650590150547,District,district</t>
-  </si>
-  <si>
     <t>14,electricity_consumption_total,1.0087795983198464,Building_1,building</t>
   </si>
   <si>
@@ -331,18 +199,6 @@
     <t>27,cost_total,1.1314147923734044,Building_2,building</t>
   </si>
   <si>
-    <t>34,electricity_consumption_total,1.0076487681762316,Building_3,building</t>
-  </si>
-  <si>
-    <t>35,zero_net_energy,1.0076487681762316,Building_3,building</t>
-  </si>
-  <si>
-    <t>36,carbon_emissions_total,0.9992221796143402,Building_3,building</t>
-  </si>
-  <si>
-    <t>37,cost_total,0.9991024231162334,Building_3,building</t>
-  </si>
-  <si>
     <t>44,electricity_consumption_total,1.0089288432322336,Building_4,building</t>
   </si>
   <si>
@@ -355,18 +211,6 @@
     <t>47,cost_total,1.0033331666941818,Building_4,building</t>
   </si>
   <si>
-    <t>54,electricity_consumption_total,1.0088790866021078,Building_5,building</t>
-  </si>
-  <si>
-    <t>55,zero_net_energy,1.008869289063218,Building_5,building</t>
-  </si>
-  <si>
-    <t>56,carbon_emissions_total,0.9991183923910831,Building_5,building</t>
-  </si>
-  <si>
-    <t>57,cost_total,0.9990714808490107,Building_5,building</t>
-  </si>
-  <si>
     <t>64,electricity_consumption_total,1.0023844597900886,Building_6,building</t>
   </si>
   <si>
@@ -379,16 +223,172 @@
     <t>67,cost_total,1.0010242678793324,Building_6,building</t>
   </si>
   <si>
-    <t>74,electricity_consumption_total,1.0113427106416244,Building_7,building</t>
-  </si>
-  <si>
-    <t>75,zero_net_energy,1.0113427106416244,Building_7,building</t>
-  </si>
-  <si>
-    <t>76,carbon_emissions_total,0.9988480235138205,Building_7,building</t>
-  </si>
-  <si>
-    <t>77,cost_total,0.9985912661122323,Building_7,building</t>
+    <t>0,annual_peak_average,1.015097863028235,District,district</t>
+  </si>
+  <si>
+    <t>1,carbon_emissions_total,1.0113348989352295,District,district</t>
+  </si>
+  <si>
+    <t>2,cost_total,1.0131434846032041,District,district</t>
+  </si>
+  <si>
+    <t>3,daily_peak_average,1.0244247272808977,District,district</t>
+  </si>
+  <si>
+    <t>10,electricity_consumption_total,1.0106345474068357,District,district</t>
+  </si>
+  <si>
+    <t>11,one_minus_load_factor_average,1.0081986528744744,District,district</t>
+  </si>
+  <si>
+    <t>12,ramping_average,1.0306091356483853,District,district</t>
+  </si>
+  <si>
+    <t>13,zero_net_energy,1.0106329440938284,District,district</t>
+  </si>
+  <si>
+    <t>14,electricity_consumption_total,1.0200976297296298,Building_1,building</t>
+  </si>
+  <si>
+    <t>15,zero_net_energy,1.0200976297296298,Building_1,building</t>
+  </si>
+  <si>
+    <t>16,carbon_emissions_total,1.0212654136659833,Building_1,building</t>
+  </si>
+  <si>
+    <t>17,cost_total,1.0284770051959409,Building_1,building</t>
+  </si>
+  <si>
+    <t>24,electricity_consumption_total,1.0161277510454914,Building_2,building</t>
+  </si>
+  <si>
+    <t>25,zero_net_energy,1.0161165278544406,Building_2,building</t>
+  </si>
+  <si>
+    <t>26,carbon_emissions_total,1.0176399039089323,Building_2,building</t>
+  </si>
+  <si>
+    <t>27,cost_total,1.0165744799284886,Building_2,building</t>
+  </si>
+  <si>
+    <t>34,electricity_consumption_total,1.009938456224502,Building_3,building</t>
+  </si>
+  <si>
+    <t>35,zero_net_energy,1.009938456224502,Building_3,building</t>
+  </si>
+  <si>
+    <t>36,carbon_emissions_total,1.0105856176401977,Building_3,building</t>
+  </si>
+  <si>
+    <t>37,cost_total,1.0142880269064285,Building_3,building</t>
+  </si>
+  <si>
+    <t>44,electricity_consumption_total,1.019739930759676,Building_4,building</t>
+  </si>
+  <si>
+    <t>45,zero_net_energy,1.019739930759676,Building_4,building</t>
+  </si>
+  <si>
+    <t>46,carbon_emissions_total,1.0209455147397315,Building_4,building</t>
+  </si>
+  <si>
+    <t>47,cost_total,1.0244640752460858,Building_4,building</t>
+  </si>
+  <si>
+    <t>54,electricity_consumption_total,1.0030800436437677,Building_5,building</t>
+  </si>
+  <si>
+    <t>55,zero_net_energy,1.0030800436437677,Building_5,building</t>
+  </si>
+  <si>
+    <t>56,carbon_emissions_total,1.0031095575427251,Building_5,building</t>
+  </si>
+  <si>
+    <t>57,cost_total,1.0013529789995033,Building_5,building</t>
+  </si>
+  <si>
+    <t>64,electricity_consumption_total,1.0085992196865934,Building_6,building</t>
+  </si>
+  <si>
+    <t>65,zero_net_energy,1.0085992196865934,Building_6,building</t>
+  </si>
+  <si>
+    <t>66,carbon_emissions_total,1.0089591863575718,Building_6,building</t>
+  </si>
+  <si>
+    <t>67,cost_total,1.0116161723483583,Building_6,building</t>
+  </si>
+  <si>
+    <t>74,electricity_consumption_total,0.9968588007581901,Building_7,building</t>
+  </si>
+  <si>
+    <t>75,zero_net_energy,0.9968588007581901,Building_7,building</t>
+  </si>
+  <si>
+    <t>76,carbon_emissions_total,0.9968390986914647,Building_7,building</t>
+  </si>
+  <si>
+    <t>77,cost_total,0.9952316535976232,Building_7,building</t>
+  </si>
+  <si>
+    <t>0,annual_peak_average,1.0055674634293645,District,district</t>
+  </si>
+  <si>
+    <t>1,carbon_emissions_total,1.0087633767458877,District,district</t>
+  </si>
+  <si>
+    <t>2,cost_total,1.0199997977577413,District,district</t>
+  </si>
+  <si>
+    <t>3,daily_peak_average,1.2033892822607994,District,district</t>
+  </si>
+  <si>
+    <t>10,electricity_consumption_total,1.0215931549129367,District,district</t>
+  </si>
+  <si>
+    <t>11,one_minus_load_factor_average,1.1083259669841243,District,district</t>
+  </si>
+  <si>
+    <t>12,ramping_average,1.5140181811504576,District,district</t>
+  </si>
+  <si>
+    <t>13,zero_net_energy,1.0140493091237166,District,district</t>
+  </si>
+  <si>
+    <t>34,electricity_consumption_total,1.0084150055981074,Building_3,building</t>
+  </si>
+  <si>
+    <t>35,zero_net_energy,1.0084150055981074,Building_3,building</t>
+  </si>
+  <si>
+    <t>36,carbon_emissions_total,0.9996053935999814,Building_3,building</t>
+  </si>
+  <si>
+    <t>37,cost_total,0.9996681849734841,Building_3,building</t>
+  </si>
+  <si>
+    <t>54,electricity_consumption_total,1.0099157513023926,Building_5,building</t>
+  </si>
+  <si>
+    <t>55,zero_net_energy,1.0097577956866493,Building_5,building</t>
+  </si>
+  <si>
+    <t>56,carbon_emissions_total,0.9997282182293444,Building_5,building</t>
+  </si>
+  <si>
+    <t>57,cost_total,1.0000458899665272,Building_5,building</t>
+  </si>
+  <si>
+    <t>74,electricity_consumption_total,1.0127111541978262,Building_7,building</t>
+  </si>
+  <si>
+    <t>75,zero_net_energy,1.0124789994085044,Building_7,building</t>
+  </si>
+  <si>
+    <t>76,carbon_emissions_total,0.9996698335667931,Building_7,building</t>
+  </si>
+  <si>
+    <t>77,cost_total,1.0000034252841503,Building_7,building</t>
   </si>
 </sst>
 </file>
@@ -706,437 +706,437 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A21:A105"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>35</v>
+        <v>73</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>38</v>
+        <v>76</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>10</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>14</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>15</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>17</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>57</v>
+        <v>83</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>58</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>21</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>23</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>65</v>
+        <v>85</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>66</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>87</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>68</v>
+        <v>88</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>25</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>29</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>31</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>35</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1148,7 +1148,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77CA6387-4208-460D-B9F6-14E67DEECAE5}">
   <dimension ref="A1:A85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:A85"/>
     </sheetView>
   </sheetViews>
@@ -1161,372 +1161,372 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>89</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>91</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>93</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>95</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>96</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>54</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>100</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>16</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>102</v>
+        <v>110</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>103</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>104</v>
+        <v>112</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>41</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>43</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>44</v>
+        <v>24</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>105</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>106</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>107</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>108</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>28</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>113</v>
+        <v>61</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>114</v>
+        <v>62</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>115</v>
+        <v>63</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>116</v>
+        <v>64</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>69</v>
+        <v>37</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>72</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>74</v>
+        <v>42</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.3">
@@ -1551,32 +1551,32 @@
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>79</v>
+        <v>43</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>81</v>
+        <v>45</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
